--- a/input/data_recap.xlsx
+++ b/input/data_recap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\PhD thesis\master-class-Ferdi\predicting-undernutrition-rate-Nigeria\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\PhD thesis\chapitre_3\predicting-undernutrition-rate-Nigeria\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F230A-6285-4DC3-AF3E-B27244B3D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076A06C-0835-4397-A3FF-725806264A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72455A7D-9D48-4A83-99C5-0F3C079B3C59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Dataset</t>
+  </si>
+  <si>
+    <t>remarks</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1749DC1-D503-45DB-A94D-D324D8434B40}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +457,7 @@
     <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +473,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1990</v>
       </c>
@@ -489,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1991</v>
       </c>
@@ -507,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -525,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1993</v>
       </c>
@@ -543,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1994</v>
       </c>
@@ -561,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1995</v>
       </c>
@@ -579,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1996</v>
       </c>
@@ -597,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1997</v>
       </c>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1998</v>
       </c>
@@ -633,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1999</v>
       </c>
@@ -651,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2002</v>
       </c>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2003</v>
       </c>
@@ -723,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2004</v>
       </c>

--- a/input/data_recap.xlsx
+++ b/input/data_recap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\PhD thesis\chapitre_3\predicting-undernutrition-rate-Nigeria\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076A06C-0835-4397-A3FF-725806264A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18180AE7-00D7-473F-9E73-078F167928AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72455A7D-9D48-4A83-99C5-0F3C079B3C59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>remarks</t>
+  </si>
+  <si>
+    <t>GIS data not available</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>Anthropometric data not available</t>
+  </si>
+  <si>
+    <t>2010 - 2011</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
@@ -765,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2006</v>
       </c>
@@ -783,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2007</v>
       </c>
@@ -800,8 +812,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2008</v>
       </c>
@@ -819,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2009</v>
       </c>
@@ -837,9 +852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>2010</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -855,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2011</v>
       </c>
@@ -872,8 +887,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>2012</v>
       </c>
@@ -891,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2013</v>
       </c>
@@ -909,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2014</v>
       </c>
@@ -927,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2015</v>
       </c>
@@ -945,9 +963,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>2016</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -963,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2017</v>
       </c>
@@ -981,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2018</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>2019</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2020</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
@@ -1052,8 +1070,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2022</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>2023</v>
       </c>
@@ -1089,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2024</v>
       </c>
